--- a/data/trans_dic/P25C_R2_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P25C_R2_2023-Edad-trans_dic.xlsx
@@ -640,10 +640,10 @@
       </c>
       <c r="C9" s="5" t="inlineStr"/>
       <c r="D9" s="5" t="n">
-        <v>0.1658002311520957</v>
+        <v>0.1616232915268639</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.09849227012242752</v>
+        <v>0.0815268006563903</v>
       </c>
     </row>
     <row r="10">
@@ -692,13 +692,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1212233430697957</v>
+        <v>0.1152827997309022</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.07289527684545784</v>
+        <v>0.05506935362129078</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.05489903197554866</v>
+        <v>0.0559670121040243</v>
       </c>
     </row>
     <row r="13">
@@ -713,7 +713,7 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.00816597956008536</v>
+        <v>0.008165979560085359</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.05095525151204951</v>
@@ -733,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02199667794906121</v>
+        <v>0.02292159571474337</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01309388066816618</v>
+        <v>0.01246994189711835</v>
       </c>
     </row>
     <row r="15">
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.04155675891286782</v>
+        <v>0.04117643382628353</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.09858389787831227</v>
+        <v>0.1039228683965684</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.05382822779987469</v>
+        <v>0.05004236073460423</v>
       </c>
     </row>
     <row r="16">
@@ -768,10 +768,10 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.0215761545848131</v>
+        <v>0.02157615458481309</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.04291969074259036</v>
+        <v>0.04291969074259037</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.02933711069197386</v>
@@ -785,13 +785,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.005894366188307251</v>
+        <v>0.005586806755544364</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01469570520638151</v>
+        <v>0.01400360676700521</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01556472495958739</v>
+        <v>0.01401494131985334</v>
       </c>
     </row>
     <row r="18">
@@ -802,13 +802,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.05439744125369704</v>
+        <v>0.05123721507152765</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.08684419401426967</v>
+        <v>0.08738595195138289</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.05268838450778516</v>
+        <v>0.05340750484919173</v>
       </c>
     </row>
     <row r="19">
@@ -823,7 +823,7 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.02625112814825814</v>
+        <v>0.02625112814825813</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>0.07250965718033313</v>
@@ -840,13 +840,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.01126176107988922</v>
+        <v>0.01199558278272936</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.02578125963896033</v>
+        <v>0.02628640831472483</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.02033756928021694</v>
+        <v>0.01963442549275424</v>
       </c>
     </row>
     <row r="21">
@@ -857,13 +857,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.05106567233506503</v>
+        <v>0.05570750841884294</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.148244306744951</v>
+        <v>0.1453419028442989</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.06256885221531508</v>
+        <v>0.06196348156474084</v>
       </c>
     </row>
     <row r="22">
@@ -884,7 +884,7 @@
         <v>0.02564341095531386</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.03576845981780646</v>
+        <v>0.03576845981780647</v>
       </c>
     </row>
     <row r="23">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.01536075216550849</v>
+        <v>0.01407679648790036</v>
       </c>
       <c r="D23" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.01755851837238901</v>
+        <v>0.01557397592667348</v>
       </c>
     </row>
     <row r="24">
@@ -912,13 +912,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.07300158951799442</v>
+        <v>0.07333018042971062</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1181254708607098</v>
+        <v>0.1601042777734318</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.06623898146883682</v>
+        <v>0.0684292086541788</v>
       </c>
     </row>
     <row r="25">
@@ -950,13 +950,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.01380291081923009</v>
+        <v>0.01451726643805211</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.02380359462623365</v>
+        <v>0.0261977729379862</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.02048022006556542</v>
+        <v>0.02056103241253297</v>
       </c>
     </row>
     <row r="27">
@@ -967,13 +967,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.03449457760058577</v>
+        <v>0.03492699244577681</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.05810273188758425</v>
+        <v>0.05825536449868826</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.03805263549532695</v>
+        <v>0.0380954741565423</v>
       </c>
     </row>
     <row r="28">
@@ -1194,10 +1194,10 @@
       </c>
       <c r="C11" s="6" t="inlineStr"/>
       <c r="D11" s="6" t="n">
-        <v>5649</v>
+        <v>5506</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>5890</v>
+        <v>4875</v>
       </c>
     </row>
     <row r="12">
@@ -1263,13 +1263,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>5974</v>
+        <v>5681</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>4119</v>
+        <v>3111</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>5807</v>
+        <v>5920</v>
       </c>
     </row>
     <row r="16">
@@ -1321,10 +1321,10 @@
         <v>0</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>2034</v>
+        <v>2120</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>2696</v>
+        <v>2567</v>
       </c>
     </row>
     <row r="19">
@@ -1335,13 +1335,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>4712</v>
+        <v>4669</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>9117</v>
+        <v>9611</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>11082</v>
+        <v>10302</v>
       </c>
     </row>
     <row r="20">
@@ -1390,13 +1390,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>973</v>
+        <v>922</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1386</v>
+        <v>1321</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>4038</v>
+        <v>3636</v>
       </c>
     </row>
     <row r="23">
@@ -1407,13 +1407,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>8980</v>
+        <v>8458</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>8192</v>
+        <v>8243</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>13668</v>
+        <v>13854</v>
       </c>
     </row>
     <row r="24">
@@ -1462,13 +1462,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>1933</v>
+        <v>2058</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>1253</v>
+        <v>1277</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>4478</v>
+        <v>4324</v>
       </c>
     </row>
     <row r="27">
@@ -1479,13 +1479,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>8763</v>
+        <v>9560</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>7204</v>
+        <v>7063</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>13778</v>
+        <v>13644</v>
       </c>
     </row>
     <row r="28">
@@ -1534,13 +1534,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>1976</v>
+        <v>1811</v>
       </c>
       <c r="D30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>2604</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="31">
@@ -1551,13 +1551,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>9393</v>
+        <v>9435</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>2319</v>
+        <v>3144</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>9823</v>
+        <v>10148</v>
       </c>
     </row>
     <row r="32">
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>9113</v>
+        <v>9585</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>8709</v>
+        <v>9586</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>21015</v>
+        <v>21098</v>
       </c>
     </row>
     <row r="35">
@@ -1623,13 +1623,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>22774</v>
+        <v>23059</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>21259</v>
+        <v>21315</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>39046</v>
+        <v>39090</v>
       </c>
     </row>
     <row r="36">
